--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O355"/>
+  <dimension ref="A1:O369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17186,7 +17186,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>translate/__init__.py</t>
+          <t>tests/__init__.py</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -17230,7 +17230,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -17240,14 +17240,14 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>dictionary/__init__.py</t>
+          <t>tests/dictionary/__init__.py</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -17260,7 +17260,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -17269,7 +17273,7 @@
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -17291,7 +17295,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -17301,14 +17305,14 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>administration/__init__.py</t>
+          <t>dictionary/admin.py</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -17321,7 +17325,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -17330,7 +17338,7 @@
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -17352,7 +17360,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -17362,14 +17370,14 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>dictionary/admin.py</t>
+          <t>dictionary/apps.py</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -17395,7 +17403,7 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -17417,7 +17425,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -17427,14 +17435,14 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>administration/admin.py</t>
+          <t>translate/asgi.py</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -17449,7 +17457,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -17460,7 +17468,7 @@
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -17482,7 +17490,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -17492,14 +17500,14 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>dictionary/apps.py</t>
+          <t>load-seed.py</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -17509,7 +17517,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -17525,7 +17533,7 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -17547,7 +17555,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -17557,29 +17565,29 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>administration/apps.py</t>
+          <t>manage.py</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -17590,7 +17598,7 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -17612,7 +17620,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -17622,29 +17630,29 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>translate/asgi.py</t>
+          <t>dictionary/models.py</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -17655,7 +17663,7 @@
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -17677,7 +17685,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -17687,14 +17695,14 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>load-seed.py</t>
+          <t>dictionary/serializers.py</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -17704,7 +17712,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -17720,7 +17728,7 @@
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -17742,7 +17750,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -17752,19 +17760,19 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>manage.py</t>
+          <t>translate/settings.py</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -17774,7 +17782,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -17785,7 +17793,7 @@
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -17807,7 +17815,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -17817,24 +17825,24 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>dictionary/models.py</t>
+          <t>tests/dictionary/test_sample.py</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -17850,7 +17858,7 @@
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -17872,7 +17880,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -17882,14 +17890,14 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>administration/models.py</t>
+          <t>translate/urls.py</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -17904,7 +17912,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -17915,7 +17923,7 @@
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -17937,7 +17945,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -17947,24 +17955,24 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>dictionary/serializers.py</t>
+          <t>dictionary/views.py</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -17980,7 +17988,7 @@
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>102</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -18002,7 +18010,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -18012,14 +18020,14 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>translate/settings.py</t>
+          <t>translate/wsgi.py</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -18029,12 +18037,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -18045,7 +18053,7 @@
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -18067,7 +18075,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-14-05-2021.json</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -18077,14 +18085,14 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>23-03-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>dictionary/tests.py</t>
+          <t>translate/__init__.py</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -18097,11 +18105,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18110,7 +18114,7 @@
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -18149,7 +18153,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>administration/tests.py</t>
+          <t>dictionary/__init__.py</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -18162,11 +18166,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18175,7 +18175,7 @@
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -18214,7 +18214,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>translate/urls.py</t>
+          <t>administration/__init__.py</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -18227,11 +18227,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>48.4</t>
-        </is>
-      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18240,7 +18236,7 @@
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -18279,7 +18275,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>dictionary/urls.py</t>
+          <t>dictionary/admin.py</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -18305,7 +18301,7 @@
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -18344,7 +18340,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>administration/urls.py</t>
+          <t>administration/admin.py</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -18370,7 +18366,7 @@
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -18409,7 +18405,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>dictionary/views.py</t>
+          <t>dictionary/apps.py</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -18435,7 +18431,7 @@
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -18474,17 +18470,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>administration/views.py</t>
+          <t>administration/apps.py</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -18500,7 +18496,7 @@
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -18539,22 +18535,22 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>dictionary/views_html.py</t>
+          <t>translate/asgi.py</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -18565,7 +18561,7 @@
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -18604,7 +18600,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>translate/wsgi.py</t>
+          <t>load-seed.py</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -18614,12 +18610,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -18630,7 +18626,7 @@
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -18669,20 +18665,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>tests/__init__.py</t>
+          <t>manage.py</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18691,7 +18691,7 @@
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -18713,34 +18713,34 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>tests/user/__init__.py</t>
+          <t>dictionary/models.py</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -18756,7 +18756,7 @@
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -18778,24 +18778,24 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>user/__init__.py</t>
+          <t>administration/models.py</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -18808,7 +18808,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E284" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18817,7 +18821,7 @@
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -18839,24 +18843,24 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>story/__init__.py</t>
+          <t>dictionary/serializers.py</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -18869,7 +18873,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E285" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18878,7 +18886,7 @@
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -18900,24 +18908,24 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>translate/__init__.py</t>
+          <t>translate/settings.py</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -18927,10 +18935,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>23.6</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18939,7 +18951,7 @@
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -18961,24 +18973,24 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>administration/__init__.py</t>
+          <t>dictionary/tests.py</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -18991,7 +19003,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -19000,7 +19016,7 @@
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -19022,24 +19038,24 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>story/apps.py</t>
+          <t>administration/tests.py</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -19065,7 +19081,7 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -19087,24 +19103,24 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>translate/apps.py</t>
+          <t>translate/urls.py</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -19119,7 +19135,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -19130,7 +19146,7 @@
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -19152,24 +19168,24 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>administration/apps.py</t>
+          <t>dictionary/urls.py</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -19195,7 +19211,7 @@
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -19217,24 +19233,24 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>user/asgi.py</t>
+          <t>administration/urls.py</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -19249,7 +19265,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -19260,7 +19276,7 @@
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -19282,24 +19298,24 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>story/forms.py</t>
+          <t>dictionary/views.py</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -19325,7 +19341,7 @@
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -19347,34 +19363,34 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>translate/forms.py</t>
+          <t>administration/views.py</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -19390,7 +19406,7 @@
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -19412,39 +19428,39 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>manage.py</t>
+          <t>dictionary/views_html.py</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -19455,7 +19471,7 @@
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -19477,24 +19493,24 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>user/settings.py</t>
+          <t>translate/wsgi.py</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -19504,12 +19520,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -19520,7 +19536,7 @@
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -19542,41 +19558,37 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Traducao-23-03-2021.json</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>14-05-2021</t>
+          <t>23-03-2021</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>tests/user/test_sample.py</t>
+          <t>tests/__init__.py</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -19585,7 +19597,7 @@
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -19624,7 +19636,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>story/tests.py</t>
+          <t>tests/user/__init__.py</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -19689,7 +19701,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>translate/tests.py</t>
+          <t>user/__init__.py</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -19702,11 +19714,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -19715,7 +19723,7 @@
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -19754,7 +19762,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>user/urls.py</t>
+          <t>story/__init__.py</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -19767,11 +19775,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>57.7</t>
-        </is>
-      </c>
+      <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -19780,7 +19784,7 @@
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -19819,7 +19823,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>story/urls.py</t>
+          <t>translate/__init__.py</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -19832,11 +19836,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -19845,7 +19845,7 @@
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -19884,7 +19884,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>translate/urls.py</t>
+          <t>administration/__init__.py</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -19897,11 +19897,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -19910,7 +19906,7 @@
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -19949,7 +19945,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>administration/urls.py</t>
+          <t>story/apps.py</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -19975,7 +19971,7 @@
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -20014,17 +20010,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>story/views.py</t>
+          <t>translate/apps.py</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -20040,7 +20036,7 @@
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -20079,22 +20075,22 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>translate/views.py</t>
+          <t>administration/apps.py</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -20105,7 +20101,7 @@
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -20144,22 +20140,22 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>administration/views.py</t>
+          <t>user/asgi.py</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -20170,7 +20166,7 @@
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -20209,7 +20205,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>user/wsgi.py</t>
+          <t>story/forms.py</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -20224,7 +20220,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -20235,7 +20231,7 @@
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -20274,7 +20270,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>tests/__init__.py</t>
+          <t>translate/forms.py</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -20287,7 +20283,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E307" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -20296,7 +20296,7 @@
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -20328,29 +20328,29 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>tests/user/__init__.py</t>
+          <t>manage.py</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -20361,7 +20361,7 @@
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -20383,7 +20383,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -20393,14 +20393,14 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>user/__init__.py</t>
+          <t>user/settings.py</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -20410,10 +20410,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
       <c r="E309" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -20422,7 +20426,7 @@
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>103</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -20444,7 +20448,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -20454,27 +20458,31 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>story/__init__.py</t>
+          <t>tests/user/test_sample.py</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E310" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -20483,7 +20491,7 @@
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -20505,7 +20513,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -20515,14 +20523,14 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>translate/__init__.py</t>
+          <t>story/tests.py</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -20535,7 +20543,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E311" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -20544,7 +20556,7 @@
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -20566,7 +20578,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -20576,14 +20588,14 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>administration/__init__.py</t>
+          <t>translate/tests.py</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -20596,7 +20608,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E312" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -20605,7 +20621,7 @@
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -20627,7 +20643,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -20637,14 +20653,14 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>story/apps.py</t>
+          <t>user/urls.py</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -20659,7 +20675,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -20670,7 +20686,7 @@
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -20692,7 +20708,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -20702,14 +20718,14 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>translate/apps.py</t>
+          <t>story/urls.py</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -20735,7 +20751,7 @@
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -20757,7 +20773,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -20767,14 +20783,14 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>administration/apps.py</t>
+          <t>translate/urls.py</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -20800,7 +20816,7 @@
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -20822,7 +20838,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -20832,14 +20848,14 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>user/asgi.py</t>
+          <t>administration/urls.py</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -20854,7 +20870,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -20865,7 +20881,7 @@
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -20887,7 +20903,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -20897,24 +20913,24 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>story/forms.py</t>
+          <t>story/views.py</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -20930,7 +20946,7 @@
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>139</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -20952,7 +20968,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -20962,29 +20978,29 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>translate/forms.py</t>
+          <t>translate/views.py</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -20995,7 +21011,7 @@
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>145</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -21017,7 +21033,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -21027,29 +21043,29 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>manage.py</t>
+          <t>administration/views.py</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -21060,7 +21076,7 @@
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -21082,7 +21098,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -21092,14 +21108,14 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>user/settings.py</t>
+          <t>user/wsgi.py</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -21109,12 +21125,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -21125,7 +21141,7 @@
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -21147,7 +21163,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-14-05-2021.json</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -21157,31 +21173,27 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>15-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>tests/user/test_sample.py</t>
+          <t>tests/__init__.py</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21190,7 +21202,7 @@
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -21229,7 +21241,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>story/tests.py</t>
+          <t>tests/user/__init__.py</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -21294,7 +21306,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>translate/tests.py</t>
+          <t>user/__init__.py</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -21307,11 +21319,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21320,7 +21328,7 @@
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -21359,7 +21367,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>user/urls.py</t>
+          <t>story/__init__.py</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -21372,11 +21380,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>57.7</t>
-        </is>
-      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21385,7 +21389,7 @@
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -21424,7 +21428,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>story/urls.py</t>
+          <t>translate/__init__.py</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -21437,11 +21441,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21450,7 +21450,7 @@
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -21489,7 +21489,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>translate/urls.py</t>
+          <t>administration/__init__.py</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -21502,11 +21502,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21515,7 +21511,7 @@
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -21554,7 +21550,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>administration/urls.py</t>
+          <t>story/apps.py</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -21580,7 +21576,7 @@
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -21619,17 +21615,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>story/views.py</t>
+          <t>translate/apps.py</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -21645,7 +21641,7 @@
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -21684,22 +21680,22 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>translate/views.py</t>
+          <t>administration/apps.py</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -21710,7 +21706,7 @@
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -21749,22 +21745,22 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>administration/views.py</t>
+          <t>user/asgi.py</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -21775,7 +21771,7 @@
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -21814,7 +21810,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>user/wsgi.py</t>
+          <t>story/forms.py</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -21829,7 +21825,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -21840,7 +21836,7 @@
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -21879,7 +21875,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>user/__init__.py</t>
+          <t>translate/forms.py</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -21892,7 +21888,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21901,7 +21901,7 @@
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -21933,27 +21933,31 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>story/__init__.py</t>
+          <t>manage.py</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
       <c r="E333" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -21962,7 +21966,7 @@
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -21984,7 +21988,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -21994,14 +21998,14 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>translate/__init__.py</t>
+          <t>user/settings.py</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -22011,10 +22015,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
       <c r="E334" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -22023,7 +22031,7 @@
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>103</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -22045,7 +22053,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -22055,27 +22063,31 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>administration/__init__.py</t>
+          <t>tests/user/test_sample.py</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E335" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -22084,7 +22096,7 @@
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -22106,7 +22118,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -22116,14 +22128,14 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>story/apps.py</t>
+          <t>story/tests.py</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -22149,7 +22161,7 @@
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -22171,7 +22183,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -22181,14 +22193,14 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>translate/apps.py</t>
+          <t>translate/tests.py</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -22214,7 +22226,7 @@
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -22236,7 +22248,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -22246,14 +22258,14 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>administration/apps.py</t>
+          <t>user/urls.py</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -22268,7 +22280,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -22279,7 +22291,7 @@
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -22301,7 +22313,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -22311,14 +22323,14 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>user/asgi.py</t>
+          <t>story/urls.py</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -22333,7 +22345,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -22344,7 +22356,7 @@
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -22366,7 +22378,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -22376,14 +22388,14 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>story/forms.py</t>
+          <t>translate/urls.py</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -22409,7 +22421,7 @@
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -22431,7 +22443,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -22441,14 +22453,14 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>translate/forms.py</t>
+          <t>administration/urls.py</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -22474,7 +22486,7 @@
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -22496,7 +22508,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -22506,29 +22518,29 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>manage.py</t>
+          <t>story/views.py</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -22539,7 +22551,7 @@
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>113</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -22561,7 +22573,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -22571,29 +22583,29 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>user/settings.py</t>
+          <t>translate/views.py</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -22604,7 +22616,7 @@
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>145</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -22626,7 +22638,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -22636,29 +22648,29 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>story/tests.py</t>
+          <t>administration/views.py</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -22669,7 +22681,7 @@
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -22691,7 +22703,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -22701,29 +22713,29 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>translate/tests.py</t>
+          <t>user/wsgi.py</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -22734,7 +22746,7 @@
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -22756,7 +22768,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-15-05-2021.json</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -22766,31 +22778,27 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>16-05-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>administration/tests.py</t>
+          <t>user/__init__.py</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>11.4</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -22799,7 +22807,7 @@
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -22838,7 +22846,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>user/urls.py</t>
+          <t>story/__init__.py</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -22851,11 +22859,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>57.7</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -22864,7 +22868,7 @@
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -22903,7 +22907,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>story/urls.py</t>
+          <t>translate/__init__.py</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -22916,11 +22920,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -22929,7 +22929,7 @@
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -22968,7 +22968,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>translate/urls.py</t>
+          <t>administration/__init__.py</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -22981,11 +22981,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -22994,7 +22990,7 @@
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -23033,7 +23029,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>administration/urls.py</t>
+          <t>story/apps.py</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -23059,7 +23055,7 @@
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -23098,17 +23094,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>story/views.py</t>
+          <t>translate/apps.py</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -23124,7 +23120,7 @@
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -23163,22 +23159,22 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>translate/views.py</t>
+          <t>administration/apps.py</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -23189,7 +23185,7 @@
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -23228,22 +23224,22 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>administration/views.py</t>
+          <t>user/asgi.py</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -23254,7 +23250,7 @@
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -23293,7 +23289,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>user/wsgi.py</t>
+          <t>story/forms.py</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -23308,7 +23304,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -23319,7 +23315,7 @@
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -23358,7 +23354,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>get-ip-address.py</t>
+          <t>translate/forms.py</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -23368,7 +23364,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -23384,7 +23380,7 @@
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -23406,15 +23402,925 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>manage.py</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>user/settings.py</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>story/tests.py</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>translate/tests.py</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>administration/tests.py</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>user/urls.py</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>57.7</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>story/urls.py</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>translate/urls.py</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>administration/urls.py</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>story/views.py</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>translate/views.py</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>administration/views.py</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>user/wsgi.py</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>66.7</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-16-05-2021.json</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>get-ip-address.py</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
           <t>fga-eps-mds-2020_2-Projeto-Kokama-Usuario-17-04-2021.json</t>
         </is>
       </c>
-      <c r="N355" t="inlineStr">
+      <c r="N369" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
-      <c r="O355" t="inlineStr">
+      <c r="O369" t="inlineStr">
         <is>
           <t>17-04-2021</t>
         </is>
